--- a/psp forms/Size Estimating Template.xlsx
+++ b/psp forms/Size Estimating Template.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (22)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (32)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__22" localSheetId="0">'excel (22)'!$A$1:$L$71</definedName>
+    <definedName name="excel__32" localSheetId="0">'excel (32)'!$A$1:$L$70</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (22).iqy" name="excel (22)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (32).iqy" name="excel (32)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fpsp2%2Fsizeest%2Eclass&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
   <si>
     <t>/Non Project/PSP Fundamentals &amp; Advanced/Program 4</t>
   </si>
@@ -101,34 +101,25 @@
     <t>NR</t>
   </si>
   <si>
-    <t>isLOC</t>
-  </si>
-  <si>
-    <t>Set-up</t>
+    <t>calculateLNSum</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>calculateAverage</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>calculateStandarDeviation</t>
   </si>
   <si>
     <t>Very Small</t>
-  </si>
-  <si>
-    <t>calculateLNSum</t>
-  </si>
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>calculateAverage</t>
-  </si>
-  <si>
-    <t>calculateVariance</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>calculateStandarDeviation</t>
   </si>
   <si>
     <t>calculateLNRanges</t>
@@ -1320,7 +1311,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (22)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (32)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="6">
@@ -1795,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="6">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="6">
@@ -1877,12 +1868,12 @@
         <v>25</v>
       </c>
       <c r="G16" s="6">
-        <v>3.9</v>
+        <v>11.3</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="8"/>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K16" s="6">
         <v>0</v>
@@ -1896,13 +1887,13 @@
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G17" s="6">
         <v>5.0999999999999996</v>
@@ -1910,7 +1901,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="8"/>
       <c r="J17" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
@@ -1919,12 +1910,12 @@
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -1933,12 +1924,12 @@
         <v>25</v>
       </c>
       <c r="G18" s="6">
-        <v>2.2999999999999998</v>
+        <v>11.3</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="8"/>
       <c r="J18" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K18" s="6">
         <v>1</v>
@@ -1947,26 +1938,26 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="6">
-        <v>11.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="8"/>
       <c r="J19" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
@@ -1975,26 +1966,26 @@
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="G20" s="6">
-        <v>2.2999999999999998</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="8"/>
       <c r="J20" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
@@ -2003,26 +1994,26 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G21" s="6">
-        <v>11.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="8"/>
       <c r="J21" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -2031,26 +2022,26 @@
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G22" s="6">
-        <v>11.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="8"/>
       <c r="J22" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" s="6">
         <v>1</v>
@@ -2059,12 +2050,12 @@
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" s="6">
         <v>1</v>
@@ -2073,7 +2064,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="8"/>
@@ -2087,12 +2078,12 @@
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
@@ -2101,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="G24" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="8"/>
@@ -2115,12 +2106,12 @@
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
@@ -2129,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="8"/>
@@ -2143,12 +2134,12 @@
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
@@ -2157,7 +2148,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="8"/>
@@ -2171,12 +2162,12 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
@@ -2185,7 +2176,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="8"/>
@@ -2199,12 +2190,12 @@
     </row>
     <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
@@ -2213,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="8"/>
@@ -2227,12 +2218,12 @@
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
@@ -2241,7 +2232,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="8"/>
@@ -2255,12 +2246,12 @@
     </row>
     <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
@@ -2269,7 +2260,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="6">
-        <v>2.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="8"/>
@@ -2283,21 +2274,21 @@
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G31" s="6">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="8"/>
@@ -2311,21 +2302,21 @@
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E32" s="6">
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G32" s="6">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="8"/>
@@ -2339,21 +2330,21 @@
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33" s="6">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G33" s="6">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="8"/>
@@ -2367,21 +2358,21 @@
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G34" s="6">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="8"/>
@@ -2395,21 +2386,21 @@
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G35" s="6">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="8"/>
@@ -2421,126 +2412,112 @@
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>25</v>
-      </c>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="18"/>
       <c r="G36" s="6">
-        <v>2.6</v>
+        <v>143</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="8"/>
       <c r="J36" s="6">
-        <v>7</v>
-      </c>
-      <c r="K36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="6">
-        <v>83.9</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="6">
         <v>142</v>
       </c>
-      <c r="K37" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="19" t="s">
-        <v>8</v>
+      <c r="D38" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="F38" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
-        <v>21</v>
+      <c r="D39" s="6">
+        <v>19</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
-        <v>21</v>
+      <c r="F39" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="6">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -2552,119 +2529,119 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C44" s="8"/>
       <c r="D44" s="6">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6">
-        <v>54</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="6">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="B50" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="21" t="s">
-        <v>21</v>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6">
+        <v>213</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="6">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>65</v>
-      </c>
+    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="6">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6">
-        <v>184</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>67</v>
       </c>
@@ -2675,217 +2652,202 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="B55" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="22"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="6" t="s">
-        <v>71</v>
+      <c r="D55" s="6">
+        <v>0</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="6" t="s">
-        <v>71</v>
+      <c r="F55" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="6">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="6">
-        <v>0</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>74</v>
+      <c r="B57" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="6">
-        <v>0.88</v>
+        <v>196</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="6">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="6">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="6">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="24">
+        <v>0.28888888888888892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>82</v>
-      </c>
       <c r="C61" s="8"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="24">
-        <v>0.23819444444444446</v>
+      <c r="F61" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>83</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>84</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="B63" s="22" t="s">
-        <v>86</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B64" s="22"/>
       <c r="C64" s="8"/>
       <c r="D64" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>91</v>
+      <c r="A67" s="27"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G66:G67"/>
+  <mergeCells count="43">
+    <mergeCell ref="G65:G66"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A65:F65"/>
     <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
@@ -2894,7 +2856,7 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A36:D36"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
@@ -2922,12 +2884,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="http://localhost:2468/psp-lib/sizeinst.htm"/>
-    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2468/reports/sizeest.class?moreBaseParts=19"/>
+    <hyperlink ref="A13" r:id="rId2" display="http://localhost:2468/reports/sizeest.class?moreBaseParts=7"/>
     <hyperlink ref="D15" r:id="rId3" display="http://localhost:2468/dash/sizePerItemEdit"/>
-    <hyperlink ref="A37" r:id="rId4" display="http://localhost:2468/reports/sizeest.class?moreNew=19"/>
-    <hyperlink ref="A45" r:id="rId5" display="http://localhost:2468/reports/sizeest.class?moreReused=19"/>
-    <hyperlink ref="A49" r:id="rId6" display="http://localhost:2468/reports/probe/probe.class"/>
-    <hyperlink ref="A67" r:id="rId7" display="http://localhost:2468/reports/probe/probe.class?page=report"/>
+    <hyperlink ref="A36" r:id="rId4" display="http://localhost:2468/reports/sizeest.class?moreNew=7"/>
+    <hyperlink ref="A44" r:id="rId5" display="http://localhost:2468/reports/sizeest.class?moreReused=7"/>
+    <hyperlink ref="A48" r:id="rId6" display="http://localhost:2468/reports/probe/probe.class"/>
+    <hyperlink ref="A66" r:id="rId7" display="http://localhost:2468/reports/probe/probe.class?page=report"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
